--- a/pred_ohlcv/54_21/2020-01-15 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 AMO ohlcv.xlsx
@@ -7906,7 +7906,7 @@
         <v>6104799.418032448</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2196225.214032448</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1872128.244032448</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>839772.7780324484</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>964486.4320324482</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>182595.3729324483</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1307394.050932448</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>40451.4759324484</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1248063.713932448</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-495621.1225675517</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-6531387.104767553</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5832320.609767552</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-51570553.92370357</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-46806480.43490358</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-48874198.65390359</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-48739075.12090359</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-49472044.66590359</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-49751744.82490359</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-50679656.90490359</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-52175445.06390359</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-51366193.65790359</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-53098432.01050359</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-98031787.45780359</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 AMO ohlcv.xlsx
@@ -8140,7 +8140,7 @@
         <v>1047943.312032448</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1872128.244032448</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>839772.7780324484</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>964486.4320324482</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>182595.3729324483</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1307394.050932448</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>40451.4759324484</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1248063.713932448</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-6531387.104767553</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-5832320.609767552</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-48482254.80280357</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-51570553.92370357</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-46806480.43490358</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-47442162.61290358</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-49094568.47490358</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-48874198.65390359</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-48213122.68930359</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-47107674.76390359</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-49717841.77490359</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-48739075.12090359</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-49472044.66590359</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-50662705.37990359</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-49751744.82490359</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-50679656.90490359</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-52175445.06390359</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-51366193.65790359</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-53098432.01050359</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-98031787.45780359</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-94255715.11260359</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
